--- a/me-docs/18.Hien-thi-Slider-ngoai-Frontend.xlsx
+++ b/me-docs/18.Hien-thi-Slider-ngoai-Frontend.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D9DAD-6643-4E81-9C26-80CB1D88EBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06913A6-7F69-4C01-A2D3-83A5AF0AE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="route" sheetId="1" r:id="rId1"/>
+    <sheet name="theme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -40,6 +41,24 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>resources\views\news\main.blade.php</t>
+  </si>
+  <si>
+    <t>views\news\elements\head.blade.php</t>
+  </si>
+  <si>
+    <t>views\news\elements\header.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\elements\footer.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\elements\script.blade.php</t>
+  </si>
+  <si>
+    <t>views\news\pages\home\index.blade.php</t>
   </si>
 </sst>
 </file>
@@ -352,6 +371,495 @@
         <a:xfrm>
           <a:off x="609600" y="18478500"/>
           <a:ext cx="6752381" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132495</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90918D21-C1B3-4FDA-B833-FCBD1FD9FD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6838095" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598628</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6DFAD9-B7D0-4EFE-8DF7-1B0272DF16C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4572000"/>
+          <a:ext cx="11571428" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170057</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>151643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970A18D6-3916-45DC-BB8D-DFD4B083E93A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8382000"/>
+          <a:ext cx="11142857" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217905</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>170690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55822A3D-0643-4D70-A9D0-9D071DC9495F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="9361905" cy="6076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170209</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>66119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96ADF6D0-1AA6-4258-96B3-7BA6A2990837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20955000"/>
+          <a:ext cx="9923809" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217676</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>9024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3011D107-0D79-4FA8-A42B-185A7BAA1B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25908000"/>
+          <a:ext cx="11190476" cy="4009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>75048</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>85357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81093E56-7CF3-47F7-9C5A-AA408040F702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30289500"/>
+          <a:ext cx="9219048" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>255924</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>132595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3105BC-D37A-4AF3-9870-5BC9A3EFFD28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33718500"/>
+          <a:ext cx="10009524" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E12F37-3806-41D0-A10F-0CF86DCCCF8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="5495238" cy="2123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>255924</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>161167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FC6816-44F5-4C48-BAE6-CEB8EAE0A854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42672000"/>
+          <a:ext cx="10009524" cy="6066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>189072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA6C31-8C2E-47FF-942B-0A62EEA4BF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="49149000"/>
+          <a:ext cx="10763250" cy="5904072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -628,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -663,4 +1171,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2AA8C-2F51-4D3D-9752-4B35FD684F95}">
+  <dimension ref="A2:A258"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/18.Hien-thi-Slider-ngoai-Frontend.xlsx
+++ b/me-docs/18.Hien-thi-Slider-ngoai-Frontend.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06913A6-7F69-4C01-A2D3-83A5AF0AE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7D58F-360F-4BEC-BF09-5EF673F7EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="route" sheetId="1" r:id="rId1"/>
     <sheet name="theme" sheetId="2" r:id="rId2"/>
+    <sheet name="get slider" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>views\news\pages\home\index.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\block\slider.blade.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\HomeController.php</t>
+  </si>
+  <si>
+    <t>app\Models\SliderModel.php</t>
   </si>
 </sst>
 </file>
@@ -860,6 +870,231 @@
         <a:xfrm>
           <a:off x="609601" y="49149000"/>
           <a:ext cx="10763250" cy="5904072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AEE4B4-8B67-443A-8D73-D54F35273E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9790476" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236876</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5EB2C2-7227-455C-9EB8-79083757FAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="9990476" cy="5580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313448</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5C4B2A-B82E-4964-9122-300C05246D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12573000"/>
+          <a:ext cx="7019048" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8305</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>189738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8D5895-0D98-4BD5-BBA0-BC23A117E8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14478000"/>
+          <a:ext cx="9761905" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179809</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>75881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCEF4B1-AD56-45E8-B91A-FA4F952F58DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20955000"/>
+          <a:ext cx="9323809" cy="2552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1177,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2AA8C-2F51-4D3D-9752-4B35FD684F95}">
   <dimension ref="A2:A258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+    <sheetView topLeftCell="A287" workbookViewId="0">
       <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
@@ -1227,4 +1462,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B12297-5B53-4A05-8CDE-83EAE546F27A}">
+  <dimension ref="A2:A110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/18.Hien-thi-Slider-ngoai-Frontend.xlsx
+++ b/me-docs/18.Hien-thi-Slider-ngoai-Frontend.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7D58F-360F-4BEC-BF09-5EF673F7EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3E730A-1BE7-4C0C-B4C7-45B81EDD2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="route" sheetId="1" r:id="rId1"/>
     <sheet name="theme" sheetId="2" r:id="rId2"/>
     <sheet name="get slider" sheetId="3" r:id="rId3"/>
+    <sheet name="show slider" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>app\Models\SliderModel.php</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -1095,6 +1099,187 @@
         <a:xfrm>
           <a:off x="609600" y="20955000"/>
           <a:ext cx="9323809" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74743</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>75452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF75FFCD-50BA-4911-A389-3AF9662B001E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11657143" cy="5980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379581</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC3BFD8-A159-4D3A-9920-8D2B5FBB84E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="11352381" cy="2400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD800BBA-EFB7-4231-BD39-0268ED3860A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9334500"/>
+          <a:ext cx="11125200" cy="4695114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>157899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4E3B52-9E7D-40D9-85E3-9FAF103143FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14478000"/>
+          <a:ext cx="11191875" cy="4729899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2AA8C-2F51-4D3D-9752-4B35FD684F95}">
   <dimension ref="A2:A258"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B12297-5B53-4A05-8CDE-83EAE546F27A}">
   <dimension ref="A2:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
@@ -1498,4 +1683,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C74BC7-8AF9-4F92-899A-BC7AB897741E}">
+  <dimension ref="A2:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>